--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value697.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value697.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1890504854534336</v>
+        <v>1.07292628288269</v>
       </c>
       <c r="B1">
-        <v>0.1134812112899184</v>
+        <v>1.293322324752808</v>
       </c>
       <c r="C1">
-        <v>0.08492342146724031</v>
+        <v>1.735774993896484</v>
       </c>
       <c r="D1">
-        <v>0.08055153432479513</v>
+        <v>3.264542818069458</v>
       </c>
       <c r="E1">
-        <v>0.08483768564434373</v>
+        <v>2.308448314666748</v>
       </c>
     </row>
   </sheetData>
